--- a/Tugas/Tugas Akhir/Data_Cluster.xlsx
+++ b/Tugas/Tugas Akhir/Data_Cluster.xlsx
@@ -530,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>67.62</v>
@@ -571,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>62.41</v>
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>44.26</v>
@@ -653,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>65.25</v>
@@ -694,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>64.08</v>
@@ -735,7 +735,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>80.39</v>
@@ -776,7 +776,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>78.93</v>
@@ -817,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>78.86</v>
@@ -858,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>67.43</v>
@@ -899,7 +899,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>57.79</v>
@@ -940,7 +940,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>56.93</v>
@@ -981,7 +981,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>51.72</v>
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>65.84</v>
@@ -1063,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>53.2</v>
@@ -1104,7 +1104,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>54.79</v>
@@ -1145,7 +1145,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>58.89</v>
@@ -1186,7 +1186,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>67.32</v>
@@ -1227,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>64.93</v>
@@ -1268,7 +1268,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>44.35</v>
@@ -1309,7 +1309,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>54.19</v>
@@ -1350,7 +1350,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>50.06</v>
@@ -1391,7 +1391,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
         <v>48.48</v>
@@ -1432,7 +1432,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
         <v>60.5</v>
@@ -1473,7 +1473,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
         <v>51.45</v>
@@ -1514,7 +1514,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>58.42</v>
@@ -1555,7 +1555,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>48.71</v>
@@ -1596,7 +1596,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>61.06</v>
@@ -1637,7 +1637,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>80.21</v>
@@ -1678,7 +1678,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>47.96</v>
@@ -1719,7 +1719,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>16.15</v>
@@ -1760,7 +1760,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
         <v>63.94</v>
@@ -1801,7 +1801,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>35.28</v>
@@ -1842,7 +1842,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
         <v>74.58</v>
@@ -1883,7 +1883,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
         <v>92.48</v>

--- a/Tugas/Tugas Akhir/Data_Cluster.xlsx
+++ b/Tugas/Tugas Akhir/Data_Cluster.xlsx
@@ -530,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>67.62</v>
@@ -571,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>62.41</v>
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>44.26</v>
@@ -653,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>65.25</v>
@@ -694,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>64.08</v>
@@ -735,7 +735,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>80.39</v>
@@ -776,7 +776,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>78.93</v>
@@ -817,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>78.86</v>
@@ -858,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>67.43</v>
@@ -899,7 +899,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>57.79</v>
@@ -940,7 +940,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>56.93</v>
@@ -981,7 +981,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>51.72</v>
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>65.84</v>
@@ -1063,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>53.2</v>
@@ -1104,7 +1104,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>54.79</v>
@@ -1145,7 +1145,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>58.89</v>
@@ -1186,7 +1186,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>67.32</v>
@@ -1227,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>64.93</v>
@@ -1268,7 +1268,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>44.35</v>
@@ -1309,7 +1309,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>54.19</v>
@@ -1350,7 +1350,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
         <v>50.06</v>
@@ -1391,7 +1391,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
         <v>48.48</v>
@@ -1432,7 +1432,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>60.5</v>
@@ -1473,7 +1473,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>51.45</v>
@@ -1514,7 +1514,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>58.42</v>
@@ -1555,7 +1555,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>48.71</v>
@@ -1596,7 +1596,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>61.06</v>
@@ -1637,7 +1637,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>80.21</v>
@@ -1678,7 +1678,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
         <v>47.96</v>
@@ -1719,7 +1719,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
         <v>16.15</v>
@@ -1760,7 +1760,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>63.94</v>
@@ -1801,7 +1801,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>35.28</v>
@@ -1842,7 +1842,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>74.58</v>
@@ -1883,7 +1883,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>92.48</v>

--- a/Tugas/Tugas Akhir/Data_Cluster.xlsx
+++ b/Tugas/Tugas Akhir/Data_Cluster.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Provinsi</t>
   </si>
@@ -56,13 +56,22 @@
     <t xml:space="preserve">ACEH</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUMATERA UTARA</t>
   </si>
   <si>
     <t xml:space="preserve">SUMATERA BARAT</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">RIAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">JAMBI</t>
@@ -529,8 +538,8 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>67.62</v>
@@ -568,10 +577,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>62.41</v>
@@ -609,10 +618,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>44.26</v>
@@ -650,10 +659,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>65.25</v>
@@ -691,10 +700,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>64.08</v>
@@ -732,10 +741,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>80.39</v>
@@ -773,10 +782,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>78.93</v>
@@ -814,10 +823,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>78.86</v>
@@ -855,10 +864,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>67.43</v>
@@ -896,10 +905,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11" t="n">
         <v>57.79</v>
@@ -937,10 +946,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
       <c r="C12" t="n">
         <v>56.93</v>
@@ -978,10 +987,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
       <c r="C13" t="n">
         <v>51.72</v>
@@ -1019,10 +1028,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
       <c r="C14" t="n">
         <v>65.84</v>
@@ -1060,10 +1069,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
       <c r="C15" t="n">
         <v>53.2</v>
@@ -1101,10 +1110,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>54.79</v>
@@ -1142,10 +1151,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
       <c r="C17" t="n">
         <v>58.89</v>
@@ -1183,10 +1192,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
       </c>
       <c r="C18" t="n">
         <v>67.32</v>
@@ -1224,10 +1233,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
       </c>
       <c r="C19" t="n">
         <v>64.93</v>
@@ -1265,10 +1274,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
       <c r="C20" t="n">
         <v>44.35</v>
@@ -1306,10 +1315,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
       </c>
       <c r="C21" t="n">
         <v>54.19</v>
@@ -1347,10 +1356,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
       </c>
       <c r="C22" t="n">
         <v>50.06</v>
@@ -1388,10 +1397,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
       <c r="C23" t="n">
         <v>48.48</v>
@@ -1429,10 +1438,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
       </c>
       <c r="C24" t="n">
         <v>60.5</v>
@@ -1470,10 +1479,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
       <c r="C25" t="n">
         <v>51.45</v>
@@ -1511,10 +1520,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
       </c>
       <c r="C26" t="n">
         <v>58.42</v>
@@ -1552,10 +1561,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="n">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
       <c r="C27" t="n">
         <v>48.71</v>
@@ -1593,10 +1602,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
       </c>
       <c r="C28" t="n">
         <v>61.06</v>
@@ -1634,10 +1643,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
       </c>
       <c r="C29" t="n">
         <v>80.21</v>
@@ -1675,10 +1684,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
       </c>
       <c r="C30" t="n">
         <v>47.96</v>
@@ -1716,10 +1725,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
       </c>
       <c r="C31" t="n">
         <v>16.15</v>
@@ -1757,10 +1766,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
       </c>
       <c r="C32" t="n">
         <v>63.94</v>
@@ -1798,10 +1807,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
       </c>
       <c r="C33" t="n">
         <v>35.28</v>
@@ -1839,10 +1848,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
       </c>
       <c r="C34" t="n">
         <v>74.58</v>
@@ -1880,10 +1889,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
       </c>
       <c r="C35" t="n">
         <v>92.48</v>

--- a/Tugas/Tugas Akhir/Data_Cluster.xlsx
+++ b/Tugas/Tugas Akhir/Data_Cluster.xlsx
@@ -6,13 +6,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Fuzzy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GMM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Fuzzy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="K-means" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Provinsi</t>
   </si>
@@ -62,24 +64,27 @@
     <t xml:space="preserve">SUMATERA UTARA</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUMATERA BARAT</t>
   </si>
   <si>
+    <t xml:space="preserve">RIAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMBI</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">RIAU</t>
+    <t xml:space="preserve">SUMATERA SELATAN</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">JAMBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUMATERA SELATAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">BENGKULU</t>
   </si>
   <si>
@@ -99,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">JAWA TENGAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">DI YOGYAKARTA</t>
@@ -580,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>62.41</v>
@@ -618,10 +626,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>44.26</v>
@@ -662,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>65.25</v>
@@ -700,10 +708,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>64.08</v>
@@ -744,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>80.39</v>
@@ -782,10 +790,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>78.93</v>
@@ -823,10 +831,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>78.86</v>
@@ -864,7 +872,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -905,7 +913,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -946,10 +954,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
         <v>56.93</v>
@@ -987,10 +995,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>51.72</v>
@@ -1028,10 +1036,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>65.84</v>
@@ -1069,7 +1077,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1110,10 +1118,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
         <v>54.79</v>
@@ -1151,10 +1159,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
         <v>58.89</v>
@@ -1192,10 +1200,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>67.32</v>
@@ -1233,7 +1241,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1274,10 +1282,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C20" t="n">
         <v>44.35</v>
@@ -1315,10 +1323,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
         <v>54.19</v>
@@ -1356,10 +1364,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
         <v>50.06</v>
@@ -1397,10 +1405,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
         <v>48.48</v>
@@ -1438,10 +1446,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
         <v>60.5</v>
@@ -1479,10 +1487,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
         <v>51.45</v>
@@ -1520,10 +1528,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
         <v>58.42</v>
@@ -1561,10 +1569,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
         <v>48.71</v>
@@ -1602,10 +1610,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
         <v>61.06</v>
@@ -1643,10 +1651,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
         <v>80.21</v>
@@ -1684,10 +1692,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
         <v>47.96</v>
@@ -1725,10 +1733,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31" t="n">
         <v>16.15</v>
@@ -1766,7 +1774,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1807,10 +1815,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
         <v>35.28</v>
@@ -1848,10 +1856,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C34" t="n">
         <v>74.58</v>
@@ -1889,7 +1897,2905 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="n">
+        <v>92.48</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>62.41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44.26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L6" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80.39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>78.93</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>78.86</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67.43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L11" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>56.93</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="M13" t="n">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="L14" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>58.89</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L17" t="n">
+        <v>27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>67.32</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>64.93</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="L19" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G20" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18.19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>54.19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L21" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50.06</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L22" t="n">
+        <v>46.64</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L23" t="n">
+        <v>46.29</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L24" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>58.42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L27" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>61.06</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>80.21</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47.96</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="L30" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>76.62</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L31" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="M31" t="n">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="n">
+        <v>63.94</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H32" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L32" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L33" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>74.58</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>92.48</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="n">
+        <v>62.41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44.26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L6" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80.39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>78.93</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>78.86</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67.43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L11" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>56.93</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="M13" t="n">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="L14" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>58.89</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L17" t="n">
+        <v>27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>67.32</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>64.93</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="L19" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G20" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18.19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>54.19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L21" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50.06</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L22" t="n">
+        <v>46.64</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L23" t="n">
+        <v>46.29</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L24" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>58.42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L27" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>61.06</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>80.21</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47.96</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="L30" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>76.62</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L31" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="M31" t="n">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="n">
+        <v>63.94</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H32" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L32" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L33" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>74.58</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
